--- a/biology/Zoologie/Borek_(Gorzów)/Borek_(Gorzów).xlsx
+++ b/biology/Zoologie/Borek_(Gorzów)/Borek_(Gorzów).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Borek_(Gorz%C3%B3w)</t>
+          <t>Borek_(Gorzów)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Borek (prononciation : [ˈbɔrɛk]) est un village polonais de la gmina de Deszczno dans le powiat de Gorzów de la voïvodie de Lubusz dans l'ouest de la Pologne[2].
+Borek (prononciation : [ˈbɔrɛk]) est un village polonais de la gmina de Deszczno dans le powiat de Gorzów de la voïvodie de Lubusz dans l'ouest de la Pologne.
 Il se situe à environ 5 kilomètres à l'est de Deszczno (siège de la gmina) et 11 kilomètres au sud-est de Gorzów Wielkopolski (siège du powiat).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Borek_(Gorz%C3%B3w)</t>
+          <t>Borek_(Gorzów)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant 1945, ce village était sur le territoire allemand. (voir Évolution territoriale de la Pologne)
 Dans l'ancienne Prusse, le village porte le nom de Borures et appartient à la circonscription de Landsberg an der Warthe en allemand dans la province du Brandebourg.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Borek_(Gorz%C3%B3w)</t>
+          <t>Borek_(Gorzów)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Lieux touristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La réserve ornithologique Santockie Zakole (454 hectares) [3],[4] : vaste réserve naturelle de la Vallée de la Warta. Chênes pédonculés. 177 espèces d'oiseaux : grues, oies, courlis, guifettes... D'autres espèces peuplent la réserve : cervidés, sangliers, mollusques et bryozoaires...</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La réserve ornithologique Santockie Zakole (454 hectares) , : vaste réserve naturelle de la Vallée de la Warta. Chênes pédonculés. 177 espèces d'oiseaux : grues, oies, courlis, guifettes... D'autres espèces peuplent la réserve : cervidés, sangliers, mollusques et bryozoaires...</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Borek_(Gorz%C3%B3w)</t>
+          <t>Borek_(Gorzów)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Personnalités liées à Borek</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Janusz Kierzkowski, coureur cycliste sur piste, médaillé olympique y est né.</t>
         </is>
